--- a/TestCase_Ohrm.xlsx
+++ b/TestCase_Ohrm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rifat\Project\SQA\OrangeHRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C13BAB-D77A-4A03-B3D0-1ADC3B25C810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B81BCFD-9ABB-4544-9A14-94B2F2A49260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="435" windowWidth="13905" windowHeight="7290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="780" windowWidth="13905" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="63">
   <si>
     <t>Test Scenario (TID)</t>
   </si>
@@ -132,16 +132,110 @@
     <t>T_010</t>
   </si>
   <si>
-    <t>My-Info</t>
-  </si>
-  <si>
     <t>Test Case Creation v.0.1</t>
   </si>
   <si>
-    <t>User Login</t>
-  </si>
-  <si>
     <t>No. of Test Cases</t>
+  </si>
+  <si>
+    <t>Admin Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Management functionalities </t>
+  </si>
+  <si>
+    <t>Role-based access control (assign roles to users)</t>
+  </si>
+  <si>
+    <t>Pay Grades CRUD Operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Job titles CRUD Operation</t>
+  </si>
+  <si>
+    <t>Employee status can be managed</t>
+  </si>
+  <si>
+    <t>Work shifts can be managed</t>
+  </si>
+  <si>
+    <t>Nationalities Management</t>
+  </si>
+  <si>
+    <t>Module Configuration</t>
+  </si>
+  <si>
+    <t>System user search functionality</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Admin Module</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>Verify login with valid username and password.</t>
+  </si>
+  <si>
+    <t>Verify login with valid username and in-valid password.</t>
+  </si>
+  <si>
+    <t>Verify login with in-valid username and valid password.</t>
+  </si>
+  <si>
+    <t>Verify login with in-valid username and in-valid password.</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>Must Have a  Admin account</t>
+  </si>
+  <si>
+    <t>1) Launch browser
+2) Open URL "https://opensourcedemo.orangehrmlive.com"
+3) Provide valid user name
+4) Provide valid password
+5) Click on Login button</t>
+  </si>
+  <si>
+    <t>Admin/
+admin123</t>
+  </si>
+  <si>
+    <t>Admin/
+wrongpass</t>
+  </si>
+  <si>
+    <t>wronguser/
+admin123</t>
+  </si>
+  <si>
+    <t>wronguser/
+wrongpass</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Login successful.
+Admin should see Dashboard page after login is successfull.</t>
+  </si>
+  <si>
+    <t>Invalid credentials</t>
   </si>
 </sst>
 </file>
@@ -158,27 +252,35 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lato"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Lato"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Lato"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,12 +295,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6D01"/>
-        <bgColor rgb="FFFF6D01"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -209,8 +305,26 @@
         <bgColor rgb="FFFEF8E3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF6D01"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -238,28 +352,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,14 +696,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
   </cols>
@@ -569,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -593,50 +740,134 @@
       <c r="C2">
         <v>4</v>
       </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -646,104 +877,590 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C9FA93-7A51-4E04-83B4-24C49FAC5478}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="18.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="52.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="47.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="18.7109375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.45">
-      <c r="D1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="D2" s="5" t="s">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="D3" s="7" t="s">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="D4" s="5" t="s">
+      <c r="E3" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="D5" s="7" t="s">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>45667</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="9" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="9" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestCase_Ohrm.xlsx
+++ b/TestCase_Ohrm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rifat\Project\SQA\OrangeHRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B81BCFD-9ABB-4544-9A14-94B2F2A49260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C3BFB5-B542-417C-828A-1023D2E7A0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="780" windowWidth="13905" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="68">
   <si>
     <t>Test Scenario (TID)</t>
   </si>
@@ -236,6 +236,21 @@
   </si>
   <si>
     <t>Invalid credentials</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Login successful</t>
+  </si>
+  <si>
+    <t>Invalid credentials eroor</t>
+  </si>
+  <si>
+    <t>Md. Robayet Ahasan Rifat</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -280,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +335,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -406,6 +427,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -879,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C9FA93-7A51-4E04-83B4-24C49FAC5478}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,10 +1025,18 @@
       <c r="H9" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+      <c r="I9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -1031,10 +1063,18 @@
       <c r="H10" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -1061,10 +1101,18 @@
       <c r="H11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -1091,10 +1139,18 @@
       <c r="H12" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
+      <c r="I12" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">

--- a/TestCase_Ohrm.xlsx
+++ b/TestCase_Ohrm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rifat\Project\SQA\OrangeHRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rifat\Project\SQA\OrangeHRM-Selenium-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C3BFB5-B542-417C-828A-1023D2E7A0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D5FAB8-FD8E-4C12-B23C-41CF12C943D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="91">
   <si>
     <t>Test Scenario (TID)</t>
   </si>
@@ -251,6 +251,94 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>1) Launch browser
+2) Open URL "https://opensourcedemo.orangehrmlive.com"
+3) Navigate to Admin &gt; User Management.
+4) Search for a user.
+5) Edit details and save.</t>
+  </si>
+  <si>
+    <t>A new system user should be successfully created, and a success message should appear.</t>
+  </si>
+  <si>
+    <t>The system user details should be updated successfully.</t>
+  </si>
+  <si>
+    <t>The selected user should be deleted, and a success message should appear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appropriate error messages should be displayed for the required fields.	</t>
+  </si>
+  <si>
+    <t>The system should display an error message indicating the username already exists.</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>TC_007</t>
+  </si>
+  <si>
+    <t>TC_008</t>
+  </si>
+  <si>
+    <t>TC_009</t>
+  </si>
+  <si>
+    <t>Adding a new system user</t>
+  </si>
+  <si>
+    <t>Editing an existing system user</t>
+  </si>
+  <si>
+    <t>Deleting an existing system user</t>
+  </si>
+  <si>
+    <t>Mandatory field validation for adding a new user</t>
+  </si>
+  <si>
+    <t>Duplicate username validation</t>
+  </si>
+  <si>
+    <t>1) Launch browser
+2) Open URL "https://opensourcedemo.orangehrmlive.com"
+3) Log in as Admin
+4) Navigate to Admin &gt; User Management.
+5) Click Add User.
+6) Fill details and save.</t>
+  </si>
+  <si>
+    <t>greatrifat/
+Greatrifat@1</t>
+  </si>
+  <si>
+    <t>Must log in as Admin</t>
+  </si>
+  <si>
+    <t>1) Launch browser
+2) Open URL "https://opensourcedemo.orangehrmlive.com"
+3) Navigate to Admin &gt; User Management.
+4) Search for the user.
+5) Select the user and click Delete</t>
+  </si>
+  <si>
+    <t>greatrifat</t>
+  </si>
+  <si>
+    <t>1) Launch browser
+2) Open URL "https://opensourcedemo.orangehrmlive.com"
+3) Navigate to Admin &gt; User Management.
+1. Click Add User.
+2. Leave mandatory fields blank.
+3. Click Save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must have a user with same username </t>
   </si>
 </sst>
 </file>
@@ -295,7 +383,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +429,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -423,14 +517,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,7 +827,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,17 +1007,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C9FA93-7A51-4E04-83B4-24C49FAC5478}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="18.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="5" customWidth="1"/>
     <col min="4" max="4" width="52.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" style="5" customWidth="1"/>
     <col min="6" max="6" width="47.140625" style="5" customWidth="1"/>
@@ -925,10 +1031,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D2" s="3" t="s">
@@ -1028,7 +1134,7 @@
       <c r="I9" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K9" s="11" t="s">
@@ -1066,7 +1172,7 @@
       <c r="I10" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K10" s="11" t="s">
@@ -1104,7 +1210,7 @@
       <c r="I11" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K11" s="11" t="s">
@@ -1142,7 +1248,7 @@
       <c r="I12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K12" s="11" t="s">
@@ -1152,91 +1258,151 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+        <v>75</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+        <v>76</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+        <v>77</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
@@ -1494,24 +1660,6 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
